--- a/data/gatte-test-1.xlsx
+++ b/data/gatte-test-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TimeVisual\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\TimeVisual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23F2E47-037F-4436-BBF5-A63F6924D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AEA97D-DF7C-4004-A93C-244F5B6B2DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2040" windowWidth="15165" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="255" windowWidth="14535" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-09-13" sheetId="34" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>起始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《枪炮、病菌和钢铁》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A793E67-D455-4536-B7BF-04CD26612290}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1247,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0445C2-B3B1-4C55-A49C-3F5ACB352813}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D9" si="0">INT(ABS(B4-A4)*1440)</f>
+        <f t="shared" ref="D4:D20" si="0">INT(ABS(B4-A4)*1440)</f>
         <v>32</v>
       </c>
     </row>
@@ -1397,116 +1405,237 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="5">
+        <v>44461.9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44461.942361111112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="5">
+        <v>44461.955555555556</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44461.974305555559</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="5">
+        <v>44462.322916666664</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44462.336805555555</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="5">
+        <v>44462.368750000001</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44462.388888888891</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="5">
+        <v>44462.396527777775</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44462.447916666664</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="5">
+        <v>44462.455555555556</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44462.461805555555</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="5">
+        <v>44462.479861111111</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44462.488194444442</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>44462.597916666666</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44462.624305555553</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>44462.624305555553</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44462.703472222223</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>44462.708333333336</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44462.734027777777</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>44462.747916666667</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44462.772222222222</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1813,7 +1942,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D21:D1048576 D1">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D4056AFB-F88E-4655-AE49-63ADDE37A1C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1822,7 +1965,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D4056AFB-F88E-4655-AE49-63ADDE37A1C5}</x14:id>
+          <x14:id>{9FB1DC66-6021-4F07-AAA8-EE1AE9C6189F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1843,7 +1986,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D21:D1048576 D1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9FB1DC66-6021-4F07-AAA8-EE1AE9C6189F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/gatte-test-1.xlsx
+++ b/data/gatte-test-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>起始</t>
   </si>
@@ -866,7 +866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,6 +1159,29 @@
       <c r="A21" s="2">
         <v>44468.64166666667</v>
       </c>
+      <c r="B21" s="2">
+        <v>44468.65972222222</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>44468.65972222222</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44468.67708333334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
